--- a/Code/Results/Cases/Case_5_70/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_70/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.012282899434354</v>
+        <v>0.3825411565576928</v>
       </c>
       <c r="C2">
-        <v>0.1849682395666576</v>
+        <v>0.060807607171256</v>
       </c>
       <c r="D2">
-        <v>0.2240729331174833</v>
+        <v>0.1972768006721139</v>
       </c>
       <c r="E2">
-        <v>0.1758335137995815</v>
+        <v>0.1687696096471782</v>
       </c>
       <c r="F2">
-        <v>0.7522868876763056</v>
+        <v>1.424585000670383</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.02672462365074526</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>0.3107802780482452</v>
+        <v>0.7082064001759925</v>
       </c>
       <c r="J2">
-        <v>0.1836306139911628</v>
+        <v>0.1873394869775851</v>
       </c>
       <c r="K2">
-        <v>1.142581155467724</v>
+        <v>0.4169121961893723</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.652312113012073</v>
+        <v>3.444437899617625</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8807861809039821</v>
+        <v>0.3426740460885753</v>
       </c>
       <c r="C3">
-        <v>0.1613805159222466</v>
+        <v>0.05361555193017864</v>
       </c>
       <c r="D3">
-        <v>0.1973162869831953</v>
+        <v>0.1905918361524783</v>
       </c>
       <c r="E3">
-        <v>0.1562550117979526</v>
+        <v>0.1643571820370653</v>
       </c>
       <c r="F3">
-        <v>0.7285069905082224</v>
+        <v>1.429303185283004</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>0.3189972734786046</v>
+        <v>0.7158796129890419</v>
       </c>
       <c r="J3">
-        <v>0.1645616502468172</v>
+        <v>0.1834558576622669</v>
       </c>
       <c r="K3">
-        <v>0.9946176143886305</v>
+        <v>0.3719707251527211</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.643893235205411</v>
+        <v>3.469712867894231</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8001227241655045</v>
+        <v>0.3182053267261153</v>
       </c>
       <c r="C4">
-        <v>0.1469110605482911</v>
+        <v>0.04919238347044086</v>
       </c>
       <c r="D4">
-        <v>0.1810095185552854</v>
+        <v>0.1865624613248542</v>
       </c>
       <c r="E4">
-        <v>0.1443919852267221</v>
+        <v>0.1617301785162688</v>
       </c>
       <c r="F4">
-        <v>0.7153796214083101</v>
+        <v>1.43298091856483</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>0.32478901143417</v>
+        <v>0.7209753403111314</v>
       </c>
       <c r="J4">
-        <v>0.1530787615639966</v>
+        <v>0.1811772573574117</v>
       </c>
       <c r="K4">
-        <v>0.9038500128881424</v>
+        <v>0.3443737628843735</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.64247198155104</v>
+        <v>3.487160028938021</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7672602508014563</v>
+        <v>0.308237226976189</v>
       </c>
       <c r="C5">
-        <v>0.1410158280242655</v>
+        <v>0.04738818196057082</v>
       </c>
       <c r="D5">
-        <v>0.1743919917802543</v>
+        <v>0.1849394946407159</v>
       </c>
       <c r="E5">
-        <v>0.1395942347361228</v>
+        <v>0.1606803902649787</v>
       </c>
       <c r="F5">
-        <v>0.7103836473692979</v>
+        <v>1.434675993104477</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>0.3273300578211114</v>
+        <v>0.7231485015043937</v>
       </c>
       <c r="J5">
-        <v>0.1484518092362705</v>
+        <v>0.1802753754285078</v>
       </c>
       <c r="K5">
-        <v>0.866869958308456</v>
+        <v>0.3331277659760303</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.642795305291415</v>
+        <v>3.494754645539999</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7618036806761666</v>
+        <v>0.3065822374375671</v>
       </c>
       <c r="C6">
-        <v>0.1400369389816092</v>
+        <v>0.04708849419455419</v>
       </c>
       <c r="D6">
-        <v>0.1732947383414682</v>
+        <v>0.1846711555830893</v>
       </c>
       <c r="E6">
-        <v>0.1387996858764708</v>
+        <v>0.1605073278374327</v>
       </c>
       <c r="F6">
-        <v>0.7095749404791434</v>
+        <v>1.43496932037263</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>0.3277627265325513</v>
+        <v>0.7235151872923424</v>
       </c>
       <c r="J6">
-        <v>0.1476865518059043</v>
+        <v>0.1801272298087326</v>
       </c>
       <c r="K6">
-        <v>0.8607296154052051</v>
+        <v>0.3312603959686271</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.64290236928926</v>
+        <v>3.496045000701216</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7996795083112431</v>
+        <v>0.3180708800554726</v>
       </c>
       <c r="C7">
-        <v>0.146831553389859</v>
+        <v>0.04916805824115045</v>
       </c>
       <c r="D7">
-        <v>0.1809201643766158</v>
+        <v>0.1865404961891386</v>
       </c>
       <c r="E7">
-        <v>0.1443271373760382</v>
+        <v>0.1617159366668446</v>
       </c>
       <c r="F7">
-        <v>0.7153108343860666</v>
+        <v>1.433002983789557</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>0.3248225573589316</v>
+        <v>0.721004257196693</v>
       </c>
       <c r="J7">
-        <v>0.1530161541463855</v>
+        <v>0.1811649862640721</v>
       </c>
       <c r="K7">
-        <v>0.9033512683187723</v>
+        <v>0.3442220945863426</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.642472739243786</v>
+        <v>3.487260489984294</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9669204377452729</v>
+        <v>0.3687932953046698</v>
       </c>
       <c r="C8">
-        <v>0.1768310123922419</v>
+        <v>0.05832933646769334</v>
       </c>
       <c r="D8">
-        <v>0.214820047476266</v>
+        <v>0.1949562833198542</v>
       </c>
       <c r="E8">
-        <v>0.1690479788193713</v>
+        <v>0.1672311664672463</v>
       </c>
       <c r="F8">
-        <v>0.7437712352589116</v>
+        <v>1.426049809422572</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>0.3134543530659073</v>
+        <v>0.7107723325058473</v>
       </c>
       <c r="J8">
-        <v>0.1770061687139659</v>
+        <v>0.1859784295886513</v>
       </c>
       <c r="K8">
-        <v>1.091538508679491</v>
+        <v>0.4014173298091066</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.648606732618077</v>
+        <v>3.452752435521063</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.296008003604328</v>
+        <v>0.4683154017187405</v>
       </c>
       <c r="C9">
-        <v>0.2358762692548879</v>
+        <v>0.07623421192157309</v>
       </c>
       <c r="D9">
-        <v>0.2824135077009373</v>
+        <v>0.2120521081267128</v>
       </c>
       <c r="E9">
-        <v>0.2189390691917694</v>
+        <v>0.1786973675917238</v>
       </c>
       <c r="F9">
-        <v>0.8120865709702088</v>
+        <v>1.41860897249795</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>0.2974085086296938</v>
+        <v>0.6937587135357397</v>
       </c>
       <c r="J9">
-        <v>0.2260469246123762</v>
+        <v>0.1962581699807089</v>
       </c>
       <c r="K9">
-        <v>1.461838005434345</v>
+        <v>0.5135314631701817</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.692277396761796</v>
+        <v>3.400388407791951</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.539278943247467</v>
+        <v>0.5414452157912137</v>
       </c>
       <c r="C10">
-        <v>0.2795556384082545</v>
+        <v>0.0893492576558117</v>
       </c>
       <c r="D10">
-        <v>0.3329782571965154</v>
+        <v>0.2249692238509198</v>
       </c>
       <c r="E10">
-        <v>0.2566918872259834</v>
+        <v>0.187517125476127</v>
       </c>
       <c r="F10">
-        <v>0.8711015055321525</v>
+        <v>1.416919572574812</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>0.2899039998022772</v>
+        <v>0.6831209828711913</v>
       </c>
       <c r="J10">
-        <v>0.2636025721958788</v>
+        <v>0.2043239766556582</v>
       </c>
       <c r="K10">
-        <v>1.735598958660631</v>
+        <v>0.5958499032643942</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.746458543958767</v>
+        <v>3.371258813343417</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.650466202904511</v>
+        <v>0.5747118371222371</v>
       </c>
       <c r="C11">
-        <v>0.2995318461972829</v>
+        <v>0.09530649450877604</v>
       </c>
       <c r="D11">
-        <v>0.3562310960361685</v>
+        <v>0.2309221928579888</v>
       </c>
       <c r="E11">
-        <v>0.274161307282391</v>
+        <v>0.1916151523982563</v>
       </c>
       <c r="F11">
-        <v>0.9001504165177181</v>
+        <v>1.41697162756364</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>0.2875332427987232</v>
+        <v>0.6786864215859332</v>
       </c>
       <c r="J11">
-        <v>0.2810924239720265</v>
+        <v>0.2081050173503769</v>
       </c>
       <c r="K11">
-        <v>1.860734057195515</v>
+        <v>0.6332828751880015</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.77657260670091</v>
+        <v>3.360038181655312</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.692661924331134</v>
+        <v>0.5873084391926682</v>
       </c>
       <c r="C12">
-        <v>0.3071151720966441</v>
+        <v>0.0975609976488272</v>
       </c>
       <c r="D12">
-        <v>0.3650770663684568</v>
+        <v>0.2331873837922274</v>
       </c>
       <c r="E12">
-        <v>0.2808239878977972</v>
+        <v>0.1931792763254734</v>
       </c>
       <c r="F12">
-        <v>0.9114927604365874</v>
+        <v>1.417109335140864</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>0.2867956492083579</v>
+        <v>0.6770653943257372</v>
       </c>
       <c r="J12">
-        <v>0.2877802436647556</v>
+        <v>0.2095528808558385</v>
       </c>
       <c r="K12">
-        <v>1.908225420412577</v>
+        <v>0.6474551752295099</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.788822070561935</v>
+        <v>3.356081404844645</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.683569975074533</v>
+        <v>0.5845955794102906</v>
       </c>
       <c r="C13">
-        <v>0.3054810737565106</v>
+        <v>0.09707551269801229</v>
       </c>
       <c r="D13">
-        <v>0.363170045180027</v>
+        <v>0.2326990502916715</v>
       </c>
       <c r="E13">
-        <v>0.2793868708782199</v>
+        <v>0.1928418685836135</v>
       </c>
       <c r="F13">
-        <v>0.909034342547713</v>
+        <v>1.417074429505234</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>0.2869472104806299</v>
+        <v>0.6774119200686535</v>
       </c>
       <c r="J13">
-        <v>0.2863369123167132</v>
+        <v>0.2092403433603209</v>
       </c>
       <c r="K13">
-        <v>1.897992296209651</v>
+        <v>0.6444030508651508</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.786145308559327</v>
+        <v>3.356920566584392</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.653935737447426</v>
+        <v>0.575748185945713</v>
       </c>
       <c r="C14">
-        <v>0.3001553338013139</v>
+        <v>0.09549200192256535</v>
       </c>
       <c r="D14">
-        <v>0.3569580177693155</v>
+        <v>0.2311083331461106</v>
       </c>
       <c r="E14">
-        <v>0.2747084709173961</v>
+        <v>0.1917435878402998</v>
       </c>
       <c r="F14">
-        <v>0.9010765487934123</v>
+        <v>1.416980592056461</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>0.2874692899014626</v>
+        <v>0.6785518910149584</v>
       </c>
       <c r="J14">
-        <v>0.2816412976552698</v>
+        <v>0.2082238120960795</v>
       </c>
       <c r="K14">
-        <v>1.864638972496039</v>
+        <v>0.6344488981885945</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.777563066115562</v>
+        <v>3.359706797094105</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.635796339180274</v>
+        <v>0.5703287849524941</v>
       </c>
       <c r="C15">
-        <v>0.296895717110857</v>
+        <v>0.09452187410346369</v>
       </c>
       <c r="D15">
-        <v>0.3531584035990534</v>
+        <v>0.2301353926581982</v>
       </c>
       <c r="E15">
-        <v>0.2718491389670419</v>
+        <v>0.1910724579593435</v>
       </c>
       <c r="F15">
-        <v>0.8962475133262586</v>
+        <v>1.416938480339709</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>0.287810250118703</v>
+        <v>0.6792577432472022</v>
       </c>
       <c r="J15">
-        <v>0.2787737359729334</v>
+        <v>0.2076032489244426</v>
       </c>
       <c r="K15">
-        <v>1.844223420894195</v>
+        <v>0.6283513120833106</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.772418206621552</v>
+        <v>3.36145150817697</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.532024477487454</v>
+        <v>0.5392710961700118</v>
       </c>
       <c r="C16">
-        <v>0.2782525762756904</v>
+        <v>0.08895975142380053</v>
       </c>
       <c r="D16">
-        <v>0.3314640577620622</v>
+        <v>0.2245817199271443</v>
       </c>
       <c r="E16">
-        <v>0.2555565763106813</v>
+        <v>0.1872510327936112</v>
       </c>
       <c r="F16">
-        <v>0.8692495462836973</v>
+        <v>1.416932682528909</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>0.2900807769626326</v>
+        <v>0.683418938895052</v>
       </c>
       <c r="J16">
-        <v>0.2624682732316472</v>
+        <v>0.2040791260096171</v>
       </c>
       <c r="K16">
-        <v>1.727434760841334</v>
+        <v>0.5934032246269112</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.744605541249342</v>
+        <v>3.372032988741296</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.468508832794498</v>
+        <v>0.5202176022429228</v>
       </c>
       <c r="C17">
-        <v>0.2668452220087261</v>
+        <v>0.08554522890648286</v>
       </c>
       <c r="D17">
-        <v>0.3182226405529747</v>
+        <v>0.2211943281628237</v>
       </c>
       <c r="E17">
-        <v>0.245640673661164</v>
+        <v>0.1849286651852537</v>
       </c>
       <c r="F17">
-        <v>0.8532688569179498</v>
+        <v>1.417139292860341</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>0.2917478451473805</v>
+        <v>0.6860753702278615</v>
       </c>
       <c r="J17">
-        <v>0.2525737403127408</v>
+        <v>0.201945827480202</v>
       </c>
       <c r="K17">
-        <v>1.65595551444062</v>
+        <v>0.5719595759019285</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.728984784513386</v>
+        <v>3.379044632295006</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.432024398741902</v>
+        <v>0.5092585297308005</v>
       </c>
       <c r="C18">
-        <v>0.2602937884786627</v>
+        <v>0.08358045748423137</v>
       </c>
       <c r="D18">
-        <v>0.3106298301102299</v>
+        <v>0.219253236666745</v>
       </c>
       <c r="E18">
-        <v>0.2399648065818596</v>
+        <v>0.1836009872254465</v>
       </c>
       <c r="F18">
-        <v>0.8442828944028662</v>
+        <v>1.41733536587941</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>0.2928042295578308</v>
+        <v>0.6876413578845089</v>
       </c>
       <c r="J18">
-        <v>0.2469204295920377</v>
+        <v>0.200729341086813</v>
       </c>
       <c r="K18">
-        <v>1.614897772975894</v>
+        <v>0.5596244724699773</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.720510875768184</v>
+        <v>3.383268656509728</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.419679173959508</v>
+        <v>0.5055479954968405</v>
       </c>
       <c r="C19">
-        <v>0.2580771626365106</v>
+        <v>0.08291508037936524</v>
       </c>
       <c r="D19">
-        <v>0.3080629029446413</v>
+        <v>0.2185972649767223</v>
       </c>
       <c r="E19">
-        <v>0.2380476345789333</v>
+        <v>0.1831528489213738</v>
       </c>
       <c r="F19">
-        <v>0.8412749870982026</v>
+        <v>1.417415018271171</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>0.29317835574086</v>
+        <v>0.688178112471995</v>
       </c>
       <c r="J19">
-        <v>0.2450126119960885</v>
+        <v>0.2003192689393529</v>
       </c>
       <c r="K19">
-        <v>1.601005253067683</v>
+        <v>0.5554478200770916</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.717727721421738</v>
+        <v>3.384731654931471</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.475265089837222</v>
+        <v>0.5222458847875373</v>
       </c>
       <c r="C20">
-        <v>0.2680585182709763</v>
+        <v>0.08590879710826016</v>
       </c>
       <c r="D20">
-        <v>0.3196297681682694</v>
+        <v>0.2215541727295687</v>
       </c>
       <c r="E20">
-        <v>0.2466933581035065</v>
+        <v>0.1851750486876185</v>
       </c>
       <c r="F20">
-        <v>0.8549485603080313</v>
+        <v>1.417109305186997</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>0.2915602174023491</v>
+        <v>0.6857886471155119</v>
       </c>
       <c r="J20">
-        <v>0.253623076545864</v>
+        <v>0.2021718310321745</v>
       </c>
       <c r="K20">
-        <v>1.663558751980787</v>
+        <v>0.5742424270615913</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.73059436156214</v>
+        <v>3.378278449716817</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.662637410274471</v>
+        <v>0.5783469054595116</v>
       </c>
       <c r="C21">
-        <v>0.3017190940855414</v>
+        <v>0.09595715547425243</v>
       </c>
       <c r="D21">
-        <v>0.3587815001455112</v>
+        <v>0.2315752696982827</v>
       </c>
       <c r="E21">
-        <v>0.2760813034108835</v>
+        <v>0.1920658464365133</v>
       </c>
       <c r="F21">
-        <v>0.9034044483774153</v>
+        <v>1.417004952043953</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>0.2873115112452886</v>
+        <v>0.6782154726525782</v>
       </c>
       <c r="J21">
-        <v>0.2830187011630159</v>
+        <v>0.2085219561232208</v>
       </c>
       <c r="K21">
-        <v>1.87443263112911</v>
+        <v>0.6373727546417456</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.780060422788665</v>
+        <v>3.358880480632479</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.785638048973169</v>
+        <v>0.6150075096577439</v>
       </c>
       <c r="C22">
-        <v>0.3238294580648358</v>
+        <v>0.1025162891919251</v>
       </c>
       <c r="D22">
-        <v>0.3846085774774792</v>
+        <v>0.2381882891209557</v>
       </c>
       <c r="E22">
-        <v>0.2955667858008653</v>
+        <v>0.1966409896936554</v>
       </c>
       <c r="F22">
-        <v>0.9370806119211466</v>
+        <v>1.417624517833815</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>0.2854735157503931</v>
+        <v>0.6736054908103739</v>
       </c>
       <c r="J22">
-        <v>0.3026114494693246</v>
+        <v>0.2127657619220287</v>
       </c>
       <c r="K22">
-        <v>2.012875329327443</v>
+        <v>0.6786156854004446</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.817350932269193</v>
+        <v>3.347906253817371</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.719934934821993</v>
+        <v>0.5954417032301933</v>
       </c>
       <c r="C23">
-        <v>0.3120173341007728</v>
+        <v>0.09901632508231728</v>
       </c>
       <c r="D23">
-        <v>0.3708006982700454</v>
+        <v>0.2346530143816494</v>
       </c>
       <c r="E23">
-        <v>0.2851397973279148</v>
+        <v>0.194192616865891</v>
       </c>
       <c r="F23">
-        <v>0.9189144559425131</v>
+        <v>1.417230913998949</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>0.2863650422897273</v>
+        <v>0.6760348369953988</v>
       </c>
       <c r="J23">
-        <v>0.2921173063879507</v>
+        <v>0.2104922024537643</v>
       </c>
       <c r="K23">
-        <v>1.938921998606901</v>
+        <v>0.656605295878677</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.796973405664176</v>
+        <v>3.353607458916457</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.472210488965743</v>
+        <v>0.5213289136642629</v>
       </c>
       <c r="C24">
-        <v>0.2675099660910973</v>
+        <v>0.0857444332644377</v>
       </c>
       <c r="D24">
-        <v>0.3189935442663483</v>
+        <v>0.221391467165148</v>
       </c>
       <c r="E24">
-        <v>0.2462173622212376</v>
+        <v>0.1850636353966948</v>
       </c>
       <c r="F24">
-        <v>0.8541885405257403</v>
+        <v>1.417122621859619</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>0.2916447395281629</v>
+        <v>0.6859181538724961</v>
       </c>
       <c r="J24">
-        <v>0.2531485625154204</v>
+        <v>0.202069623753502</v>
       </c>
       <c r="K24">
-        <v>1.660121215626702</v>
+        <v>0.5732103713793322</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.72986509807879</v>
+        <v>3.378624239886165</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.206780824587582</v>
+        <v>0.4413884680982676</v>
       </c>
       <c r="C25">
-        <v>0.2198633062196222</v>
+        <v>0.07139722915452751</v>
       </c>
       <c r="D25">
-        <v>0.2639860055581806</v>
+        <v>0.2073642579649828</v>
       </c>
       <c r="E25">
-        <v>0.2052674148457783</v>
+        <v>0.1755259054451983</v>
       </c>
       <c r="F25">
-        <v>0.7921474300318323</v>
+        <v>1.419958649566013</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>0.3010332065128871</v>
+        <v>0.698034483224415</v>
       </c>
       <c r="J25">
-        <v>0.2125357493568742</v>
+        <v>0.1933871493186388</v>
       </c>
       <c r="K25">
-        <v>1.361434627760218</v>
+        <v>0.4832089932229735</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.676796967732798</v>
+        <v>3.412914473483681</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_70/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_70/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3825411565576928</v>
+        <v>1.012282899434325</v>
       </c>
       <c r="C2">
-        <v>0.060807607171256</v>
+        <v>0.1849682395661745</v>
       </c>
       <c r="D2">
-        <v>0.1972768006721139</v>
+        <v>0.224072933117597</v>
       </c>
       <c r="E2">
-        <v>0.1687696096471782</v>
+        <v>0.1758335137995815</v>
       </c>
       <c r="F2">
-        <v>1.424585000670383</v>
+        <v>0.7522868876762914</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="I2">
-        <v>0.7082064001759925</v>
+        <v>0.3107802780482452</v>
       </c>
       <c r="J2">
-        <v>0.1873394869775851</v>
+        <v>0.1836306139912125</v>
       </c>
       <c r="K2">
-        <v>0.4169121961893723</v>
+        <v>1.142581155467838</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.444437899617625</v>
+        <v>1.652312113012087</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3426740460885753</v>
+        <v>0.88078618090384</v>
       </c>
       <c r="C3">
-        <v>0.05361555193017864</v>
+        <v>0.1613805159222466</v>
       </c>
       <c r="D3">
-        <v>0.1905918361524783</v>
+        <v>0.1973162869832947</v>
       </c>
       <c r="E3">
-        <v>0.1643571820370653</v>
+        <v>0.1562550117979526</v>
       </c>
       <c r="F3">
-        <v>1.429303185283004</v>
+        <v>0.7285069905082366</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>0.7158796129890419</v>
+        <v>0.3189972734786046</v>
       </c>
       <c r="J3">
-        <v>0.1834558576622669</v>
+        <v>0.1645616502467888</v>
       </c>
       <c r="K3">
-        <v>0.3719707251527211</v>
+        <v>0.9946176143886305</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.469712867894231</v>
+        <v>1.643893235205411</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3182053267261153</v>
+        <v>0.8001227241655897</v>
       </c>
       <c r="C4">
-        <v>0.04919238347044086</v>
+        <v>0.1469110605480495</v>
       </c>
       <c r="D4">
-        <v>0.1865624613248542</v>
+        <v>0.1810095185554133</v>
       </c>
       <c r="E4">
-        <v>0.1617301785162688</v>
+        <v>0.1443919852267115</v>
       </c>
       <c r="F4">
-        <v>1.43298091856483</v>
+        <v>0.7153796214083172</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>0.7209753403111314</v>
+        <v>0.3247890114341487</v>
       </c>
       <c r="J4">
-        <v>0.1811772573574117</v>
+        <v>0.1530787615640534</v>
       </c>
       <c r="K4">
-        <v>0.3443737628843735</v>
+        <v>0.9038500128880855</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.487160028938021</v>
+        <v>1.642471981551012</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.308237226976189</v>
+        <v>0.7672602508013426</v>
       </c>
       <c r="C5">
-        <v>0.04738818196057082</v>
+        <v>0.1410158280242797</v>
       </c>
       <c r="D5">
-        <v>0.1849394946407159</v>
+        <v>0.1743919917802685</v>
       </c>
       <c r="E5">
-        <v>0.1606803902649787</v>
+        <v>0.1395942347361228</v>
       </c>
       <c r="F5">
-        <v>1.434675993104477</v>
+        <v>0.7103836473692979</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>0.7231485015043937</v>
+        <v>0.3273300578211114</v>
       </c>
       <c r="J5">
-        <v>0.1802753754285078</v>
+        <v>0.1484518092364198</v>
       </c>
       <c r="K5">
-        <v>0.3331277659760303</v>
+        <v>0.8668699583085129</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.494754645539999</v>
+        <v>1.642795305291472</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3065822374375671</v>
+        <v>0.7618036806761666</v>
       </c>
       <c r="C6">
-        <v>0.04708849419455419</v>
+        <v>0.1400369389812823</v>
       </c>
       <c r="D6">
-        <v>0.1846711555830893</v>
+        <v>0.1732947383416388</v>
       </c>
       <c r="E6">
-        <v>0.1605073278374327</v>
+        <v>0.1387996858764993</v>
       </c>
       <c r="F6">
-        <v>1.43496932037263</v>
+        <v>0.7095749404791434</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>0.7235151872923424</v>
+        <v>0.3277627265325265</v>
       </c>
       <c r="J6">
-        <v>0.1801272298087326</v>
+        <v>0.1476865518059824</v>
       </c>
       <c r="K6">
-        <v>0.3312603959686271</v>
+        <v>0.8607296154051767</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.496045000701216</v>
+        <v>1.642902369289232</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3180708800554726</v>
+        <v>0.7996795083113852</v>
       </c>
       <c r="C7">
-        <v>0.04916805824115045</v>
+        <v>0.1468315533896032</v>
       </c>
       <c r="D7">
-        <v>0.1865404961891386</v>
+        <v>0.1809201643764453</v>
       </c>
       <c r="E7">
-        <v>0.1617159366668446</v>
+        <v>0.1443271373760666</v>
       </c>
       <c r="F7">
-        <v>1.433002983789557</v>
+        <v>0.7153108343860595</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>0.721004257196693</v>
+        <v>0.3248225573589316</v>
       </c>
       <c r="J7">
-        <v>0.1811649862640721</v>
+        <v>0.1530161541463357</v>
       </c>
       <c r="K7">
-        <v>0.3442220945863426</v>
+        <v>0.9033512683187439</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.487260489984294</v>
+        <v>1.6424727392438</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3687932953046698</v>
+        <v>0.9669204377453582</v>
       </c>
       <c r="C8">
-        <v>0.05832933646769334</v>
+        <v>0.1768310123920998</v>
       </c>
       <c r="D8">
-        <v>0.1949562833198542</v>
+        <v>0.2148200474763229</v>
       </c>
       <c r="E8">
-        <v>0.1672311664672463</v>
+        <v>0.1690479788193642</v>
       </c>
       <c r="F8">
-        <v>1.426049809422572</v>
+        <v>0.7437712352589116</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>0.7107723325058473</v>
+        <v>0.3134543530659215</v>
       </c>
       <c r="J8">
-        <v>0.1859784295886513</v>
+        <v>0.1770061687138949</v>
       </c>
       <c r="K8">
-        <v>0.4014173298091066</v>
+        <v>1.091538508679434</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.452752435521063</v>
+        <v>1.648606732618163</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4683154017187405</v>
+        <v>1.296008003604271</v>
       </c>
       <c r="C9">
-        <v>0.07623421192157309</v>
+        <v>0.2358762692548879</v>
       </c>
       <c r="D9">
-        <v>0.2120521081267128</v>
+        <v>0.2824135077007668</v>
       </c>
       <c r="E9">
-        <v>0.1786973675917238</v>
+        <v>0.2189390691917907</v>
       </c>
       <c r="F9">
-        <v>1.41860897249795</v>
+        <v>0.8120865709702016</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>0.6937587135357397</v>
+        <v>0.2974085086296796</v>
       </c>
       <c r="J9">
-        <v>0.1962581699807089</v>
+        <v>0.2260469246123478</v>
       </c>
       <c r="K9">
-        <v>0.5135314631701817</v>
+        <v>1.461838005434373</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.400388407791951</v>
+        <v>1.692277396761739</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5414452157912137</v>
+        <v>1.539278943247496</v>
       </c>
       <c r="C10">
-        <v>0.0893492576558117</v>
+        <v>0.2795556384082545</v>
       </c>
       <c r="D10">
-        <v>0.2249692238509198</v>
+        <v>0.3329782571965723</v>
       </c>
       <c r="E10">
-        <v>0.187517125476127</v>
+        <v>0.2566918872259834</v>
       </c>
       <c r="F10">
-        <v>1.416919572574812</v>
+        <v>0.8711015055321383</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>0.6831209828711913</v>
+        <v>0.2899039998022737</v>
       </c>
       <c r="J10">
-        <v>0.2043239766556582</v>
+        <v>0.2636025721958219</v>
       </c>
       <c r="K10">
-        <v>0.5958499032643942</v>
+        <v>1.735598958660773</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.371258813343417</v>
+        <v>1.746458543958767</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5747118371222371</v>
+        <v>1.650466202904482</v>
       </c>
       <c r="C11">
-        <v>0.09530649450877604</v>
+        <v>0.2995318461975955</v>
       </c>
       <c r="D11">
-        <v>0.2309221928579888</v>
+        <v>0.3562310960361117</v>
       </c>
       <c r="E11">
-        <v>0.1916151523982563</v>
+        <v>0.274161307282391</v>
       </c>
       <c r="F11">
-        <v>1.41697162756364</v>
+        <v>0.9001504165177181</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>0.6786864215859332</v>
+        <v>0.2875332427987232</v>
       </c>
       <c r="J11">
-        <v>0.2081050173503769</v>
+        <v>0.2810924239719981</v>
       </c>
       <c r="K11">
-        <v>0.6332828751880015</v>
+        <v>1.860734057195515</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.360038181655312</v>
+        <v>1.776572606700967</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5873084391926682</v>
+        <v>1.692661924331219</v>
       </c>
       <c r="C12">
-        <v>0.0975609976488272</v>
+        <v>0.3071151720965588</v>
       </c>
       <c r="D12">
-        <v>0.2331873837922274</v>
+        <v>0.3650770663683716</v>
       </c>
       <c r="E12">
-        <v>0.1931792763254734</v>
+        <v>0.2808239878978327</v>
       </c>
       <c r="F12">
-        <v>1.417109335140864</v>
+        <v>0.9114927604366017</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>0.6770653943257372</v>
+        <v>0.2867956492083579</v>
       </c>
       <c r="J12">
-        <v>0.2095528808558385</v>
+        <v>0.2877802436647272</v>
       </c>
       <c r="K12">
-        <v>0.6474551752295099</v>
+        <v>1.908225420412492</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.356081404844645</v>
+        <v>1.788822070561963</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5845955794102906</v>
+        <v>1.683569975074505</v>
       </c>
       <c r="C13">
-        <v>0.09707551269801229</v>
+        <v>0.3054810737562264</v>
       </c>
       <c r="D13">
-        <v>0.2326990502916715</v>
+        <v>0.3631700451799134</v>
       </c>
       <c r="E13">
-        <v>0.1928418685836135</v>
+        <v>0.2793868708781915</v>
       </c>
       <c r="F13">
-        <v>1.417074429505234</v>
+        <v>0.909034342547713</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>0.6774119200686535</v>
+        <v>0.2869472104806157</v>
       </c>
       <c r="J13">
-        <v>0.2092403433603209</v>
+        <v>0.2863369123167558</v>
       </c>
       <c r="K13">
-        <v>0.6444030508651508</v>
+        <v>1.897992296209623</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.356920566584392</v>
+        <v>1.786145308559298</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.575748185945713</v>
+        <v>1.653935737447597</v>
       </c>
       <c r="C14">
-        <v>0.09549200192256535</v>
+        <v>0.3001553338015412</v>
       </c>
       <c r="D14">
-        <v>0.2311083331461106</v>
+        <v>0.3569580177692586</v>
       </c>
       <c r="E14">
-        <v>0.1917435878402998</v>
+        <v>0.2747084709174104</v>
       </c>
       <c r="F14">
-        <v>1.416980592056461</v>
+        <v>0.9010765487934265</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>0.6785518910149584</v>
+        <v>0.2874692899014555</v>
       </c>
       <c r="J14">
-        <v>0.2082238120960795</v>
+        <v>0.2816412976553551</v>
       </c>
       <c r="K14">
-        <v>0.6344488981885945</v>
+        <v>1.864638972496152</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.359706797094105</v>
+        <v>1.777563066115562</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5703287849524941</v>
+        <v>1.635796339180388</v>
       </c>
       <c r="C15">
-        <v>0.09452187410346369</v>
+        <v>0.296895717110857</v>
       </c>
       <c r="D15">
-        <v>0.2301353926581982</v>
+        <v>0.3531584035988971</v>
       </c>
       <c r="E15">
-        <v>0.1910724579593435</v>
+        <v>0.2718491389670419</v>
       </c>
       <c r="F15">
-        <v>1.416938480339709</v>
+        <v>0.8962475133262586</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>0.6792577432472022</v>
+        <v>0.287810250118703</v>
       </c>
       <c r="J15">
-        <v>0.2076032489244426</v>
+        <v>0.2787737359729761</v>
       </c>
       <c r="K15">
-        <v>0.6283513120833106</v>
+        <v>1.844223420894167</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.36145150817697</v>
+        <v>1.772418206621552</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5392710961700118</v>
+        <v>1.532024477487198</v>
       </c>
       <c r="C16">
-        <v>0.08895975142380053</v>
+        <v>0.2782525762752073</v>
       </c>
       <c r="D16">
-        <v>0.2245817199271443</v>
+        <v>0.3314640577619201</v>
       </c>
       <c r="E16">
-        <v>0.1872510327936112</v>
+        <v>0.2555565763106458</v>
       </c>
       <c r="F16">
-        <v>1.416932682528909</v>
+        <v>0.8692495462836831</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>0.683418938895052</v>
+        <v>0.2900807769626468</v>
       </c>
       <c r="J16">
-        <v>0.2040791260096171</v>
+        <v>0.2624682732315904</v>
       </c>
       <c r="K16">
-        <v>0.5934032246269112</v>
+        <v>1.72743476084139</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.372032988741296</v>
+        <v>1.744605541249314</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5202176022429228</v>
+        <v>1.468508832794498</v>
       </c>
       <c r="C17">
-        <v>0.08554522890648286</v>
+        <v>0.2668452220089534</v>
       </c>
       <c r="D17">
-        <v>0.2211943281628237</v>
+        <v>0.3182226405529178</v>
       </c>
       <c r="E17">
-        <v>0.1849286651852537</v>
+        <v>0.2456406736611711</v>
       </c>
       <c r="F17">
-        <v>1.417139292860341</v>
+        <v>0.8532688569179356</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>0.6860753702278615</v>
+        <v>0.2917478451473734</v>
       </c>
       <c r="J17">
-        <v>0.201945827480202</v>
+        <v>0.2525737403128687</v>
       </c>
       <c r="K17">
-        <v>0.5719595759019285</v>
+        <v>1.655955514440649</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.379044632295006</v>
+        <v>1.728984784513415</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5092585297308005</v>
+        <v>1.432024398741646</v>
       </c>
       <c r="C18">
-        <v>0.08358045748423137</v>
+        <v>0.2602937884785774</v>
       </c>
       <c r="D18">
-        <v>0.219253236666745</v>
+        <v>0.3106298301102868</v>
       </c>
       <c r="E18">
-        <v>0.1836009872254465</v>
+        <v>0.2399648065818383</v>
       </c>
       <c r="F18">
-        <v>1.41733536587941</v>
+        <v>0.8442828944028662</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>0.6876413578845089</v>
+        <v>0.2928042295578592</v>
       </c>
       <c r="J18">
-        <v>0.200729341086813</v>
+        <v>0.2469204295921799</v>
       </c>
       <c r="K18">
-        <v>0.5596244724699773</v>
+        <v>1.614897772975837</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.383268656509728</v>
+        <v>1.720510875768184</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5055479954968405</v>
+        <v>1.419679173959537</v>
       </c>
       <c r="C19">
-        <v>0.08291508037936524</v>
+        <v>0.2580771626367522</v>
       </c>
       <c r="D19">
-        <v>0.2185972649767223</v>
+        <v>0.3080629029445277</v>
       </c>
       <c r="E19">
-        <v>0.1831528489213738</v>
+        <v>0.2380476345789404</v>
       </c>
       <c r="F19">
-        <v>1.417415018271171</v>
+        <v>0.8412749870982168</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>0.688178112471995</v>
+        <v>0.2931783557408565</v>
       </c>
       <c r="J19">
-        <v>0.2003192689393529</v>
+        <v>0.2450126119960743</v>
       </c>
       <c r="K19">
-        <v>0.5554478200770916</v>
+        <v>1.601005253067768</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.384731654931471</v>
+        <v>1.717727721421795</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5222458847875373</v>
+        <v>1.475265089837194</v>
       </c>
       <c r="C20">
-        <v>0.08590879710826016</v>
+        <v>0.2680585182709478</v>
       </c>
       <c r="D20">
-        <v>0.2215541727295687</v>
+        <v>0.319629768168511</v>
       </c>
       <c r="E20">
-        <v>0.1851750486876185</v>
+        <v>0.246693358103478</v>
       </c>
       <c r="F20">
-        <v>1.417109305186997</v>
+        <v>0.8549485603080029</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>0.6857886471155119</v>
+        <v>0.2915602174023455</v>
       </c>
       <c r="J20">
-        <v>0.2021718310321745</v>
+        <v>0.2536230765458498</v>
       </c>
       <c r="K20">
-        <v>0.5742424270615913</v>
+        <v>1.663558751980815</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.378278449716817</v>
+        <v>1.730594361562225</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5783469054595116</v>
+        <v>1.662637410274357</v>
       </c>
       <c r="C21">
-        <v>0.09595715547425243</v>
+        <v>0.3017190940854562</v>
       </c>
       <c r="D21">
-        <v>0.2315752696982827</v>
+        <v>0.3587815001456249</v>
       </c>
       <c r="E21">
-        <v>0.1920658464365133</v>
+        <v>0.2760813034108764</v>
       </c>
       <c r="F21">
-        <v>1.417004952043953</v>
+        <v>0.9034044483774153</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>0.6782154726525782</v>
+        <v>0.287311511245278</v>
       </c>
       <c r="J21">
-        <v>0.2085219561232208</v>
+        <v>0.2830187011629732</v>
       </c>
       <c r="K21">
-        <v>0.6373727546417456</v>
+        <v>1.87443263112911</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.358880480632479</v>
+        <v>1.780060422788637</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6150075096577439</v>
+        <v>1.785638048973198</v>
       </c>
       <c r="C22">
-        <v>0.1025162891919251</v>
+        <v>0.3238294580649494</v>
       </c>
       <c r="D22">
-        <v>0.2381882891209557</v>
+        <v>0.3846085774773655</v>
       </c>
       <c r="E22">
-        <v>0.1966409896936554</v>
+        <v>0.2955667858008724</v>
       </c>
       <c r="F22">
-        <v>1.417624517833815</v>
+        <v>0.9370806119211466</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>0.6736054908103739</v>
+        <v>0.2854735157503967</v>
       </c>
       <c r="J22">
-        <v>0.2127657619220287</v>
+        <v>0.3026114494692678</v>
       </c>
       <c r="K22">
-        <v>0.6786156854004446</v>
+        <v>2.012875329327244</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.347906253817371</v>
+        <v>1.817350932269136</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5954417032301933</v>
+        <v>1.719934934821993</v>
       </c>
       <c r="C23">
-        <v>0.09901632508231728</v>
+        <v>0.3120173341010002</v>
       </c>
       <c r="D23">
-        <v>0.2346530143816494</v>
+        <v>0.3708006982700738</v>
       </c>
       <c r="E23">
-        <v>0.194192616865891</v>
+        <v>0.2851397973279148</v>
       </c>
       <c r="F23">
-        <v>1.417230913998949</v>
+        <v>0.9189144559425131</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>0.6760348369953988</v>
+        <v>0.2863650422897379</v>
       </c>
       <c r="J23">
-        <v>0.2104922024537643</v>
+        <v>0.2921173063879223</v>
       </c>
       <c r="K23">
-        <v>0.656605295878677</v>
+        <v>1.938921998606929</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.353607458916457</v>
+        <v>1.796973405664147</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5213289136642629</v>
+        <v>1.472210488965999</v>
       </c>
       <c r="C24">
-        <v>0.0857444332644377</v>
+        <v>0.2675099660910973</v>
       </c>
       <c r="D24">
-        <v>0.221391467165148</v>
+        <v>0.318993544266462</v>
       </c>
       <c r="E24">
-        <v>0.1850636353966948</v>
+        <v>0.2462173622212518</v>
       </c>
       <c r="F24">
-        <v>1.417122621859619</v>
+        <v>0.8541885405257403</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>0.6859181538724961</v>
+        <v>0.2916447395281558</v>
       </c>
       <c r="J24">
-        <v>0.202069623753502</v>
+        <v>0.2531485625154204</v>
       </c>
       <c r="K24">
-        <v>0.5732103713793322</v>
+        <v>1.660121215626759</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.378624239886165</v>
+        <v>1.729865098078676</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4413884680982676</v>
+        <v>1.206780824587554</v>
       </c>
       <c r="C25">
-        <v>0.07139722915452751</v>
+        <v>0.2198633062198496</v>
       </c>
       <c r="D25">
-        <v>0.2073642579649828</v>
+        <v>0.2639860055581664</v>
       </c>
       <c r="E25">
-        <v>0.1755259054451983</v>
+        <v>0.2052674148457641</v>
       </c>
       <c r="F25">
-        <v>1.419958649566013</v>
+        <v>0.7921474300318181</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>0.698034483224415</v>
+        <v>0.3010332065128623</v>
       </c>
       <c r="J25">
-        <v>0.1933871493186388</v>
+        <v>0.2125357493568032</v>
       </c>
       <c r="K25">
-        <v>0.4832089932229735</v>
+        <v>1.361434627760218</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.412914473483681</v>
+        <v>1.676796967732912</v>
       </c>
     </row>
   </sheetData>
